--- a/Lectures and Assignment 3/problem1.xlsx
+++ b/Lectures and Assignment 3/problem1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA7664-5F63-4915-987D-6AB346882CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE00085-3227-4411-A162-15C1EC1424E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="864" windowWidth="11964" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="16" r:id="rId1"/>
@@ -128,9 +128,9 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6038851" cy="13944600"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="6038851" cy="17232630"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -144,8 +144,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="342899" y="504825"/>
-              <a:ext cx="6038851" cy="13944600"/>
+              <a:off x="342899" y="499110"/>
+              <a:ext cx="6038851" cy="17232630"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4408,18 +4408,6 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) </a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -4429,27 +4417,115 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Report the optimal total costs, i.e., optimal objective function value. (1 pt)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
+                <a:t>Constraint 1 is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Production capacity constraint for each mill</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraint 2 is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Balance of supply and demand at warehouses</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraint 3 is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Demand satisfaction at customer areas:</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4478,42 +4554,6 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4542,6 +4582,40 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Complete the source code ("transhipment.py" in MyCourses) and copy paste the lines of code you added to the textbox on the right. For each line of Python code you also need to have comments exlaining what it does in your own words. (3 pts)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4580,7 +4654,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>c) </a:t>
+                <a:t>b) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4592,23 +4666,8 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Report the mills in which it is optimal to utilize the extra capacity.</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1 pt)</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
+                <a:t>Report the optimal total costs, i.e., optimal objective function value. (1 pt)</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4656,6 +4715,58 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Optimal total cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4 174 230 (euros)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4685,22 +4796,44 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>c) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Report the mills in which it is optimal to utilize the extra capacity.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(1 pt)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4748,6 +4881,99 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The mills where it is optimal to utilize the extra capacity are:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mill 0 (Finland)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mill 2 (Belgium)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4776,64 +5002,6 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Report the optimal transportation routes and volumes. Include only those routes in which some non-zero amount is being transported) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1 pt)</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4862,6 +5030,64 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>d) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Report the optimal transportation routes and volumes. Include only those routes in which some non-zero amount is being transported) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(1 pt)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4891,27 +5117,670 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mills to Warehouses</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 0 (Finland) to Warehouse 0 (Finland): 1690.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 0 (Finland) to Warehouse 1 (Lithuania): 2820.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 0 (Finland) to Warehouse 2 (Czech Republic): 5710.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 1 (Sweden) to Warehouse 3 (UK): 2100.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 2 (Belgium) to Warehouse 3 (UK): 5700.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouses to Customer Areas</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 0: 650.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 1: 260.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 2: 650.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 3: 130.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 1 (Lithuania) to Customer Area 10: 1040.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 1 (Lithuania) to Customer Area 12: 1780.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 2 (Czech Republic) to Customer Area 4: 420.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 2 (Czech Republic) to Customer Area 9: 3640.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 2 (Czech Republic) to Customer Area 11: 1650.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 4: 360.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 5: 2500.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 6: 910.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 7: 3120.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 8: 910.0 tons</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4925,8 +5794,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="342899" y="504825"/>
-              <a:ext cx="6038851" cy="13944600"/>
+              <a:off x="342899" y="499110"/>
+              <a:ext cx="6038851" cy="17232630"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6961,18 +7830,6 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) </a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -6982,27 +7839,115 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Report the optimal total costs, i.e., optimal objective function value. (1 pt)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
+                <a:t>Constraint 1 is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Production capacity constraint for each mill</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraint 2 is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Balance of supply and demand at warehouses</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraint 3 is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Demand satisfaction at customer areas:</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7031,42 +7976,6 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7095,6 +8004,40 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Complete the source code ("transhipment.py" in MyCourses) and copy paste the lines of code you added to the textbox on the right. For each line of Python code you also need to have comments exlaining what it does in your own words. (3 pts)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7133,7 +8076,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>c) </a:t>
+                <a:t>b) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7145,23 +8088,8 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Report the mills in which it is optimal to utilize the extra capacity.</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1 pt)</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
+                <a:t>Report the optimal total costs, i.e., optimal objective function value. (1 pt)</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7209,6 +8137,58 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Optimal total cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4 174 230 (euros)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7238,22 +8218,44 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>c) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Report the mills in which it is optimal to utilize the extra capacity.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(1 pt)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7301,6 +8303,99 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The mills where it is optimal to utilize the extra capacity are:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mill 0 (Finland)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mill 2 (Belgium)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7329,64 +8424,6 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Report the optimal transportation routes and volumes. Include only those routes in which some non-zero amount is being transported) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1 pt)</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7415,6 +8452,64 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>d) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Report the optimal transportation routes and volumes. Include only those routes in which some non-zero amount is being transported) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(1 pt)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -7444,21 +8539,664 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mills to Warehouses</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 0 (Finland) to Warehouse 0 (Finland): 1690.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 0 (Finland) to Warehouse 1 (Lithuania): 2820.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 0 (Finland) to Warehouse 2 (Czech Republic): 5710.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 1 (Sweden) to Warehouse 3 (UK): 2100.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Mill 2 (Belgium) to Warehouse 3 (UK): 5700.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouses to Customer Areas</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 0: 650.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 1: 260.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 2: 650.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 0 (Finland) to Customer Area 3: 130.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 1 (Lithuania) to Customer Area 10: 1040.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 1 (Lithuania) to Customer Area 12: 1780.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 2 (Czech Republic) to Customer Area 4: 420.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 2 (Czech Republic) to Customer Area 9: 3640.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 2 (Czech Republic) to Customer Area 11: 1650.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 4: 360.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 5: 2500.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 6: 910.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 7: 3120.0 tons</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From Warehouse 3 (UK) to Customer Area 8: 910.0 tons</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -7474,7 +9212,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6086475" cy="3364639"/>
+    <xdr:ext cx="6086475" cy="4053546"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
@@ -7488,8 +9226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6768191" y="534760"/>
-          <a:ext cx="6086475" cy="3364639"/>
+          <a:off x="6962773" y="521425"/>
+          <a:ext cx="6086475" cy="4053546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7548,127 +9286,175 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># Objective Function</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>model += (lpSum([Transp_cost_1[i][k] * X[i][k] for i in Mills for k in Warehouses]) +</a:t>
           </a:r>
-          <a:endParaRPr lang="fi-FI" sz="1100">
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>          lpSum([Transp_cost_2[k][j] * Y[k][j] for k in Warehouses for j in Customer_areas]) +</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>          lpSum([Extra_cost[i] * Z[i] for i in Mills]), "Total_Cost")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># Constraints</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># Production Capacity Constraint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>for i in Mills:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    model += (lpSum([X[i][k] for k in Warehouses]) &lt;= Prod_max[i] + (Prod_extra[i] * Z[i]), f"Prod Capacity {i}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># Supply-Demand Balance at Warehouses</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>for k in Warehouses:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    model += (lpSum([X[i][k] for i in Mills]) == lpSum([Y[k][j] for j in Customer_areas]), f"Supply Demand Warehouse {k}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># Demand Satisfaction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>for j in Customer_areas:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    model += (lpSum([Y[k][j] for k in Warehouses]) == Demand[j], f"Demand Customer Area {j}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -8450,6 +10236,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Problem 1"/>
+      <sheetName val="Problem 1 (2)"/>
       <sheetName val="Problem 2"/>
       <sheetName val="Problem 3"/>
       <sheetName val="Problem 4"/>
@@ -8457,16 +10244,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
             <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8737,7 +10525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB04D0CB-AED9-4394-A50C-5E7AB8F0DF06}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
